--- a/doc/EXCEL.xlsx
+++ b/doc/EXCEL.xlsx
@@ -18,14 +18,25 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +64,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -69,7 +80,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +125,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +160,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +342,1067 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="F1">
+        <v>1</v>
+      </c>
+      <c r="G1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>1</v>
+      </c>
+      <c r="K1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>